--- a/outputs_HGR/c__Coriobacteriia.xlsx
+++ b/outputs_HGR/c__Coriobacteriia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,17 +469,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10094.fa</t>
+          <t>even_MAG-GUT1016.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1979166999999999</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8020833000000001</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8020833000000001</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -488,59 +488,59 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>o__Eggerthellales(reject)</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1016.fa</t>
+          <t>even_MAG-GUT10928.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10928.fa</t>
+          <t>even_MAG-GUT11526.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.1979166999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.8020833000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.8020833000000001</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
@@ -566,66 +566,66 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>o__Eggerthellales(reject)</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1389.fa</t>
+          <t>even_MAG-GUT12691.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT151.fa</t>
+          <t>even_MAG-GUT1389.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15850.fa</t>
+          <t>even_MAG-GUT14027.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -651,85 +651,85 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15909.fa</t>
+          <t>even_MAG-GUT151.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1979166999999999</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8020833000000001</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8020833000000001</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>o__Eggerthellales(reject)</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17247.fa</t>
+          <t>even_MAG-GUT15850.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18429.fa</t>
+          <t>even_MAG-GUT15909.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.1979166999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.8020833000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.8020833000000001</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1975.fa</t>
+          <t>even_MAG-GUT17247.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -755,7 +755,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1986.fa</t>
+          <t>even_MAG-GUT17705.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -781,7 +781,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21962.fa</t>
+          <t>even_MAG-GUT18429.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -807,7 +807,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23753.fa</t>
+          <t>even_MAG-GUT1975.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -833,33 +833,33 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25763.fa</t>
+          <t>even_MAG-GUT1986.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25961.fa</t>
+          <t>even_MAG-GUT20293.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -885,85 +885,85 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26303.fa</t>
+          <t>even_MAG-GUT21962.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26387.fa</t>
+          <t>even_MAG-GUT22751.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26531.fa</t>
+          <t>even_MAG-GUT23753.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26562.fa</t>
+          <t>even_MAG-GUT25763.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -989,17 +989,17 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27426.fa</t>
+          <t>even_MAG-GUT25961.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1979166999999999</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8020833000000001</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8020833000000001</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1008,170 +1008,170 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>o__Eggerthellales(reject)</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29414.fa</t>
+          <t>even_MAG-GUT26205.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29494.fa</t>
+          <t>even_MAG-GUT26303.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31502.fa</t>
+          <t>even_MAG-GUT26387.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32356.fa</t>
+          <t>even_MAG-GUT26459.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32509.fa</t>
+          <t>even_MAG-GUT26531.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32879.fa</t>
+          <t>even_MAG-GUT26562.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32889.fa</t>
+          <t>even_MAG-GUT2660.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1197,7 +1197,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32902.fa</t>
+          <t>even_MAG-GUT2783.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1223,7 +1223,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33244.fa</t>
+          <t>even_MAG-GUT29414.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1249,7 +1249,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33557.fa</t>
+          <t>even_MAG-GUT29494.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1275,7 +1275,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33569.fa</t>
+          <t>even_MAG-GUT30102.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1301,7 +1301,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34592.fa</t>
+          <t>even_MAG-GUT31343.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1320,14 +1320,14 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>o__Eggerthellales(reject)</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34594.fa</t>
+          <t>even_MAG-GUT31502.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1353,17 +1353,17 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34689.fa</t>
+          <t>even_MAG-GUT32351.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1979166999999999</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8020833000000001</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8020833000000001</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1372,118 +1372,118 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>o__Eggerthellales(reject)</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35198.fa</t>
+          <t>even_MAG-GUT32356.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1979166999999999</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8020833000000001</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8020833000000001</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>o__Eggerthellales(reject)</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35271.fa</t>
+          <t>even_MAG-GUT32509.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1979166999999999</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8020833000000001</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8020833000000001</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>o__Eggerthellales(reject)</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3531.fa</t>
+          <t>even_MAG-GUT32879.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36441.fa</t>
+          <t>even_MAG-GUT32889.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1979166999999999</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8020833000000001</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8020833000000001</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>o__Eggerthellales(reject)</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37024.fa</t>
+          <t>even_MAG-GUT32902.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1509,7 +1509,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38263.fa</t>
+          <t>even_MAG-GUT33244.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1535,7 +1535,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4044.fa</t>
+          <t>even_MAG-GUT33557.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1561,7 +1561,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4125.fa</t>
+          <t>even_MAG-GUT33569.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1587,7 +1587,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4207.fa</t>
+          <t>even_MAG-GUT34594.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1613,7 +1613,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44688.fa</t>
+          <t>even_MAG-GUT35087.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1639,17 +1639,17 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45090.fa</t>
+          <t>even_MAG-GUT35198.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.1979166999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0.8020833000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0.8020833000000001</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1665,17 +1665,17 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48779.fa</t>
+          <t>even_MAG-GUT35271.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.1979166999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0.8020833000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.8020833000000001</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1691,33 +1691,33 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50219.fa</t>
+          <t>even_MAG-GUT3531.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53548.fa</t>
+          <t>even_MAG-GUT36441.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1736,14 +1736,14 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>o__Eggerthellales(reject)</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5486.fa</t>
+          <t>even_MAG-GUT37024.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1769,59 +1769,59 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56948.fa</t>
+          <t>even_MAG-GUT38263.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1979166999999999</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8020833000000001</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8020833000000001</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>o__Eggerthellales(reject)</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57018.fa</t>
+          <t>even_MAG-GUT4044.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1979166999999999</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8020833000000001</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8020833000000001</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>o__Eggerthellales(reject)</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57392.fa</t>
+          <t>even_MAG-GUT4062.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1847,7 +1847,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57492.fa</t>
+          <t>even_MAG-GUT4125.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1873,59 +1873,59 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57819.fa</t>
+          <t>even_MAG-GUT4207.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58156.fa</t>
+          <t>even_MAG-GUT43378.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59205.fa</t>
+          <t>even_MAG-GUT44688.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1951,7 +1951,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59296.fa</t>
+          <t>even_MAG-GUT45090.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1977,7 +1977,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59532.fa</t>
+          <t>even_MAG-GUT4832.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2003,7 +2003,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59561.fa</t>
+          <t>even_MAG-GUT50219.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2029,111 +2029,111 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59569.fa</t>
+          <t>even_MAG-GUT50483.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61666.fa</t>
+          <t>even_MAG-GUT5249.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.1979166999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.8020833000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.8020833000000001</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62293.fa</t>
+          <t>even_MAG-GUT54544.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62413.fa</t>
+          <t>even_MAG-GUT5486.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1979166999999999</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8020833000000001</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8020833000000001</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>o__Eggerthellales(reject)</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62485.fa</t>
+          <t>even_MAG-GUT55210.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2152,24 +2152,24 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>o__Eggerthellales(reject)</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68598.fa</t>
+          <t>even_MAG-GUT56948.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>0.1979166999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0.8020833000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0.8020833000000001</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2185,95 +2185,95 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73018.fa</t>
+          <t>even_MAG-GUT57094.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1979166999999999</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8020833000000001</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8020833000000001</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>o__Eggerthellales(reject)</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78280.fa</t>
+          <t>even_MAG-GUT57392.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1979166999999999</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8020833000000001</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8020833000000001</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>o__Eggerthellales(reject)</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78377.fa</t>
+          <t>even_MAG-GUT57492.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1979166999999999</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8020833000000001</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8020833000000001</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>o__Eggerthellales(reject)</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79275.fa</t>
+          <t>even_MAG-GUT57819.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1979166999999999</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8020833000000001</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8020833000000001</v>
+        <v>1</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2282,92 +2282,92 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>o__Eggerthellales(reject)</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80819.fa</t>
+          <t>even_MAG-GUT57904.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82008.fa</t>
+          <t>even_MAG-GUT58156.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>o__Eggerthellales</t>
+          <t>o__Coriobacteriales</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85133.fa</t>
+          <t>even_MAG-GUT58768.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.1979166999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.8020833000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.8020833000000001</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89959.fa</t>
+          <t>even_MAG-GUT59205.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2393,50 +2393,648 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90583.fa</t>
+          <t>even_MAG-GUT59296.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>o__Coriobacteriales</t>
+          <t>o__Eggerthellales</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT59532.fa</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59561.fa</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59569.fa</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61666.fa</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62293.fa</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT63198.fa</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.1979166999999999</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.8020833000000001</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.8020833000000001</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT63214.fa</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.1979166999999999</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.8020833000000001</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.8020833000000001</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT63219.fa</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.1979166999999999</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.8020833000000001</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.8020833000000001</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT63286.fa</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.1979166999999999</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.8020833000000001</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.8020833000000001</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT63373.fa</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.1979166999999999</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.8020833000000001</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.8020833000000001</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT63496.fa</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.1979166999999999</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.8020833000000001</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.8020833000000001</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT63586.fa</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.1979166999999999</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.8020833000000001</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.8020833000000001</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT63602.fa</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.1979166999999999</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.8020833000000001</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.8020833000000001</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6856.fa</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68598.fa</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT79219.fa</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80819.fa</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82008.fa</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85133.fa</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT8776.fa</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89959.fa</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90583.fa</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9228.fa</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>o__Eggerthellales</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9760.fa</t>
         </is>
       </c>
-      <c r="B77" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C77" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>o__Coriobacteriales</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
+      <c r="B100" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
